--- a/biology/Histoire de la zoologie et de la botanique/Wilton_Ivie/Wilton_Ivie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilton_Ivie/Wilton_Ivie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilton Ivie, né le 28 mars 1907 à Eureka en Utah et mort le 8 août 1969 au Kansas, à la suite d'un accident de voiture, est un arachnologiste américain. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était un spécialiste des araignées néarctiques et a longtemps travaillé en collaboration avec Ralph Vary Chamberlin.
 Il a travaillé au Muséum américain d'histoire naturelle les 9 dernières années de sa vie.
-Membre du mouvement technocratique depuis 1937, il est l'auteur de Comments on the News qui apparaissait mensuellement dans Technocratic Trendevents, et a écrit de nombreux articles sous le pseudonyme Techno Critic, en plus des nombreux articles sous son propre nom[1].
+Membre du mouvement technocratique depuis 1937, il est l'auteur de Comments on the News qui apparaissait mensuellement dans Technocratic Trendevents, et a écrit de nombreux articles sous le pseudonyme Techno Critic, en plus des nombreux articles sous son propre nom.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Iviella Lehtinen, 1967</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aculepeira Chamberlin &amp; Ivie, 1942
